--- a/Feedback on RFC.xlsx
+++ b/Feedback on RFC.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nitins Document\My Docs\Finances\SNN Raj\Interiors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC27CD4-7D4D-45FB-9BDD-BACBB7F650C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FEE07F-8811-49BF-8BF3-A905608138E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{994EF3C0-237F-4932-BCD7-844556D9D053}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{994EF3C0-237F-4932-BCD7-844556D9D053}"/>
   </bookViews>
   <sheets>
-    <sheet name="Costing R9" sheetId="10" r:id="rId1"/>
-    <sheet name="RFC v4" sheetId="7" r:id="rId2"/>
-    <sheet name="RFC v3" sheetId="6" r:id="rId3"/>
-    <sheet name="RFC v2.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
-    <sheet name="RFC v1" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId7"/>
-    <sheet name="Master Bedroom " sheetId="9" r:id="rId8"/>
+    <sheet name="RFC v5" sheetId="11" r:id="rId1"/>
+    <sheet name="Costing R9" sheetId="10" r:id="rId2"/>
+    <sheet name="RFC v4" sheetId="7" r:id="rId3"/>
+    <sheet name="RFC v3" sheetId="6" r:id="rId4"/>
+    <sheet name="RFC v2.1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
+    <sheet name="RFC v1" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="Master Bedroom " sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="446">
   <si>
     <t>How do we select the colour/fabric of the back and seat cushion?</t>
   </si>
@@ -1652,6 +1653,87 @@
   </si>
   <si>
     <t>To be corrected..it shows Merino Dawn Jagged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. No. </t>
+  </si>
+  <si>
+    <t>Slide #</t>
+  </si>
+  <si>
+    <t>This should have been out of scope</t>
+  </si>
+  <si>
+    <t>Costing sheet</t>
+  </si>
+  <si>
+    <t>Any reason why the cost has increased considerably compared to R6?</t>
+  </si>
+  <si>
+    <t>There are 2 drawers in the second wardrobe from left. The drawing recognizes only one.</t>
+  </si>
+  <si>
+    <t>25-28</t>
+  </si>
+  <si>
+    <t>Don’t see the costing for the 2 mirrors inside the wardrobes?</t>
+  </si>
+  <si>
+    <t>I believe we need to remove GOLA from here.
+Loft laminate is TBD (off-white) and not Merino Beige</t>
+  </si>
+  <si>
+    <t>We will need the bottom draw of CAB 1 to take more than 30kg. Hence pls propose the next higher options - 50kg/60kg?</t>
+  </si>
+  <si>
+    <t>Pls include "Horizontal partition in Loft / Intent to do horzontal partition with out vertical partition on sides " in the kitchen (as done for other room)</t>
+  </si>
+  <si>
+    <t>CAB 2 has 3 draws</t>
+  </si>
+  <si>
+    <t>Need Louvre for CAB 7 door also</t>
+  </si>
+  <si>
+    <t>I understand that additional granite will need to be procured. Cost not reflected?</t>
+  </si>
+  <si>
+    <t>Pls send us the catalog for hob, chimney, sink, faucet etc or connect with the dealers</t>
+  </si>
+  <si>
+    <t>CAB2 (left side) = 450x300X2000, 
+CAB3 (right side) = 300x300x1500 (or the max height possible at site)
+Socket needs to be in top corner of CAB 3 (right side cabinet)</t>
+  </si>
+  <si>
+    <t>Both the cabinets need to be ~6" above the floor</t>
+  </si>
+  <si>
+    <t>5.3, 6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,14 </t>
+  </si>
+  <si>
+    <t>Correct the laminate to Senzura White Oak Thud Crown F612 (veneer)</t>
+  </si>
+  <si>
+    <t>4/Costing sheet</t>
+  </si>
+  <si>
+    <t>While the intent is to use handles, in this case the cabinet handle will hit the wall. Can you suggest an alternative such as profile?</t>
+  </si>
+  <si>
+    <t>3.3, 5.5</t>
+  </si>
+  <si>
+    <t>5,12</t>
+  </si>
+  <si>
+    <t>Need to discuss if and what is required here?</t>
+  </si>
+  <si>
+    <t>How are any changes handled going forward?</t>
   </si>
 </sst>
 </file>
@@ -3071,6 +3153,24 @@
     <xf numFmtId="4" fontId="17" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3125,6 +3225,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3137,46 +3261,13 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3217,15 +3308,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3644,11 +3726,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852E6541-98F1-4AF0-A5F9-7B20E5E1782D}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="135.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7.1</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8.1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8.14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851B3BA1-3F45-46D2-9BD3-F8032FB1D51A}">
   <dimension ref="A1:L961"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3664,19 +3959,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="211" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="214" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3711,11 +4006,11 @@
       <c r="A5" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="216" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="215"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="218"/>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
@@ -5112,134 +5407,134 @@
       <c r="L113" s="40"/>
     </row>
     <row r="114" spans="1:12" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="216" t="s">
+      <c r="A114" s="219" t="s">
         <v>379</v>
       </c>
-      <c r="B114" s="217"/>
-      <c r="C114" s="217"/>
-      <c r="D114" s="218"/>
+      <c r="B114" s="220"/>
+      <c r="C114" s="220"/>
+      <c r="D114" s="221"/>
     </row>
     <row r="115" spans="1:12" s="141" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="219" t="s">
+      <c r="A115" s="222" t="s">
         <v>380</v>
       </c>
-      <c r="B115" s="220"/>
-      <c r="C115" s="220"/>
-      <c r="D115" s="220"/>
+      <c r="B115" s="223"/>
+      <c r="C115" s="223"/>
+      <c r="D115" s="223"/>
       <c r="E115" s="140"/>
     </row>
     <row r="116" spans="1:12" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="142">
         <v>1</v>
       </c>
-      <c r="B116" s="221" t="s">
+      <c r="B116" s="208" t="s">
         <v>381</v>
       </c>
-      <c r="C116" s="222"/>
-      <c r="D116" s="223"/>
+      <c r="C116" s="209"/>
+      <c r="D116" s="210"/>
       <c r="E116" s="143"/>
     </row>
     <row r="117" spans="1:12" s="141" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="144">
         <v>2</v>
       </c>
-      <c r="B117" s="202" t="s">
+      <c r="B117" s="198" t="s">
         <v>382</v>
       </c>
-      <c r="C117" s="203"/>
-      <c r="D117" s="204"/>
+      <c r="C117" s="199"/>
+      <c r="D117" s="200"/>
       <c r="E117" s="143"/>
     </row>
     <row r="118" spans="1:12" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="144">
         <v>3</v>
       </c>
-      <c r="B118" s="205" t="s">
+      <c r="B118" s="201" t="s">
         <v>383</v>
       </c>
-      <c r="C118" s="206"/>
-      <c r="D118" s="207"/>
+      <c r="C118" s="202"/>
+      <c r="D118" s="203"/>
       <c r="E118" s="143"/>
     </row>
     <row r="119" spans="1:12" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="145">
         <v>4</v>
       </c>
-      <c r="B119" s="190" t="s">
+      <c r="B119" s="204" t="s">
         <v>384</v>
       </c>
-      <c r="C119" s="182"/>
-      <c r="D119" s="183"/>
+      <c r="C119" s="188"/>
+      <c r="D119" s="189"/>
       <c r="E119" s="143"/>
     </row>
     <row r="120" spans="1:12" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="145">
         <v>5</v>
       </c>
-      <c r="B120" s="190" t="s">
+      <c r="B120" s="204" t="s">
         <v>385</v>
       </c>
-      <c r="C120" s="182"/>
-      <c r="D120" s="183"/>
+      <c r="C120" s="188"/>
+      <c r="D120" s="189"/>
       <c r="E120" s="143"/>
     </row>
     <row r="121" spans="1:12" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="145">
         <v>6</v>
       </c>
-      <c r="B121" s="190" t="s">
+      <c r="B121" s="204" t="s">
         <v>386</v>
       </c>
-      <c r="C121" s="182"/>
-      <c r="D121" s="183"/>
+      <c r="C121" s="188"/>
+      <c r="D121" s="189"/>
       <c r="E121" s="143"/>
     </row>
     <row r="122" spans="1:12" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="145">
         <v>7</v>
       </c>
-      <c r="B122" s="190" t="s">
+      <c r="B122" s="204" t="s">
         <v>387</v>
       </c>
-      <c r="C122" s="182"/>
-      <c r="D122" s="183"/>
+      <c r="C122" s="188"/>
+      <c r="D122" s="189"/>
       <c r="E122" s="143"/>
     </row>
     <row r="123" spans="1:12" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="145">
         <v>8</v>
       </c>
-      <c r="B123" s="190" t="s">
+      <c r="B123" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="C123" s="182"/>
-      <c r="D123" s="183"/>
+      <c r="C123" s="188"/>
+      <c r="D123" s="189"/>
       <c r="E123" s="143"/>
     </row>
     <row r="124" spans="1:12" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="145">
         <v>9</v>
       </c>
-      <c r="B124" s="190" t="s">
+      <c r="B124" s="204" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="182"/>
-      <c r="D124" s="183"/>
+      <c r="C124" s="188"/>
+      <c r="D124" s="189"/>
       <c r="E124" s="143"/>
     </row>
     <row r="125" spans="1:12" s="141" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="146">
         <v>10</v>
       </c>
-      <c r="B125" s="191" t="s">
+      <c r="B125" s="205" t="s">
         <v>390</v>
       </c>
-      <c r="C125" s="192"/>
-      <c r="D125" s="193"/>
+      <c r="C125" s="206"/>
+      <c r="D125" s="207"/>
       <c r="E125" s="143"/>
     </row>
     <row r="126" spans="1:12" s="141" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="194">
+      <c r="A126" s="172">
         <v>11</v>
       </c>
       <c r="B126" s="147" t="s">
@@ -5253,7 +5548,7 @@
       <c r="E126" s="143"/>
     </row>
     <row r="127" spans="1:12" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="195"/>
+      <c r="A127" s="173"/>
       <c r="B127" s="150" t="s">
         <v>392</v>
       </c>
@@ -5265,7 +5560,7 @@
       <c r="E127" s="143"/>
     </row>
     <row r="128" spans="1:12" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="195"/>
+      <c r="A128" s="173"/>
       <c r="B128" s="150" t="s">
         <v>393</v>
       </c>
@@ -5277,7 +5572,7 @@
       <c r="E128" s="143"/>
     </row>
     <row r="129" spans="1:6" s="141" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="196"/>
+      <c r="A129" s="174"/>
       <c r="B129" s="153" t="s">
         <v>394</v>
       </c>
@@ -5292,22 +5587,22 @@
       <c r="A130" s="156">
         <v>12</v>
       </c>
-      <c r="B130" s="197" t="s">
+      <c r="B130" s="175" t="s">
         <v>395</v>
       </c>
-      <c r="C130" s="198"/>
-      <c r="D130" s="199"/>
+      <c r="C130" s="176"/>
+      <c r="D130" s="177"/>
       <c r="E130" s="143"/>
     </row>
     <row r="131" spans="1:6" s="141" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="146">
         <v>13</v>
       </c>
-      <c r="B131" s="181" t="s">
+      <c r="B131" s="187" t="s">
         <v>396</v>
       </c>
-      <c r="C131" s="200"/>
-      <c r="D131" s="201"/>
+      <c r="C131" s="196"/>
+      <c r="D131" s="197"/>
       <c r="E131" s="143"/>
     </row>
     <row r="132" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.2">
@@ -5361,22 +5656,22 @@
       <c r="A136" s="146">
         <v>18</v>
       </c>
-      <c r="B136" s="181" t="s">
+      <c r="B136" s="187" t="s">
         <v>401</v>
       </c>
-      <c r="C136" s="182"/>
-      <c r="D136" s="183"/>
+      <c r="C136" s="188"/>
+      <c r="D136" s="189"/>
       <c r="E136" s="143"/>
     </row>
     <row r="137" spans="1:6" s="141" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="160">
         <v>19</v>
       </c>
-      <c r="B137" s="184" t="s">
+      <c r="B137" s="190" t="s">
         <v>402</v>
       </c>
-      <c r="C137" s="185"/>
-      <c r="D137" s="186"/>
+      <c r="C137" s="191"/>
+      <c r="D137" s="192"/>
       <c r="E137" s="143"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5384,70 +5679,70 @@
       <c r="A139" s="162" t="s">
         <v>403</v>
       </c>
-      <c r="B139" s="187" t="s">
+      <c r="B139" s="193" t="s">
         <v>404</v>
       </c>
-      <c r="C139" s="188"/>
-      <c r="D139" s="189"/>
+      <c r="C139" s="194"/>
+      <c r="D139" s="195"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="163" t="s">
         <v>405</v>
       </c>
-      <c r="B140" s="172" t="s">
+      <c r="B140" s="178" t="s">
         <v>406</v>
       </c>
-      <c r="C140" s="173"/>
-      <c r="D140" s="174"/>
+      <c r="C140" s="179"/>
+      <c r="D140" s="180"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="163" t="s">
         <v>407</v>
       </c>
-      <c r="B141" s="172" t="s">
+      <c r="B141" s="178" t="s">
         <v>408</v>
       </c>
-      <c r="C141" s="173"/>
-      <c r="D141" s="174"/>
+      <c r="C141" s="179"/>
+      <c r="D141" s="180"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="163" t="s">
         <v>409</v>
       </c>
-      <c r="B142" s="172" t="s">
+      <c r="B142" s="178" t="s">
         <v>410</v>
       </c>
-      <c r="C142" s="173"/>
-      <c r="D142" s="174"/>
+      <c r="C142" s="179"/>
+      <c r="D142" s="180"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="163" t="s">
         <v>411</v>
       </c>
-      <c r="B143" s="172" t="s">
+      <c r="B143" s="178" t="s">
         <v>412</v>
       </c>
-      <c r="C143" s="173"/>
-      <c r="D143" s="174"/>
+      <c r="C143" s="179"/>
+      <c r="D143" s="180"/>
     </row>
     <row r="144" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="164" t="s">
         <v>413</v>
       </c>
-      <c r="B144" s="175" t="s">
+      <c r="B144" s="181" t="s">
         <v>414</v>
       </c>
-      <c r="C144" s="176"/>
-      <c r="D144" s="177"/>
+      <c r="C144" s="182"/>
+      <c r="D144" s="183"/>
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="178" t="s">
+      <c r="A146" s="184" t="s">
         <v>415</v>
       </c>
-      <c r="B146" s="179"/>
-      <c r="C146" s="179"/>
-      <c r="D146" s="180"/>
+      <c r="B146" s="185"/>
+      <c r="C146" s="185"/>
+      <c r="D146" s="186"/>
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6281,22 +6576,21 @@
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B116:D116"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A114:D114"/>
     <mergeCell ref="A115:D115"/>
-    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B116:D116"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="B119:D119"/>
     <mergeCell ref="B120:D120"/>
     <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
     <mergeCell ref="A126:A129"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B143:D143"/>
@@ -6308,21 +6602,19 @@
     <mergeCell ref="B140:D140"/>
     <mergeCell ref="B141:D141"/>
     <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B131:D131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FCC00C-A9A5-4C82-B6DB-65739D78ABCC}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,12 +7109,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4266E8F8-AE9C-48AD-BCA5-6CBA3539BABC}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7962,7 +8254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE22017-7FE7-41D0-90EE-007AD08906D1}">
   <dimension ref="A1:C113"/>
   <sheetViews>
@@ -8805,7 +9097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F158D2-2D19-4CEB-937D-726A36193A3A}">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -9057,7 +9349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B383075-E521-480C-9C7E-D08F7A6ECC03}">
   <dimension ref="A1:C85"/>
   <sheetViews>
@@ -9574,7 +9866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F7D7F-FB8D-4F81-8212-67D92FB087CE}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -9727,7 +10019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB17C1B-93DA-423F-B913-0CCC09144D0C}">
   <dimension ref="A1:CN107"/>
   <sheetViews>
@@ -9735,7 +10027,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI48" sqref="BI48"/>
+      <selection pane="bottomRight" activeCell="P33" sqref="P33:W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -19232,28 +19524,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B15:O33"/>
-    <mergeCell ref="X15:BH32"/>
-    <mergeCell ref="BI15:BT32"/>
-    <mergeCell ref="BU15:CI33"/>
+    <mergeCell ref="BU13:CI13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="BU2:CN12"/>
+    <mergeCell ref="CJ13:CN56"/>
+    <mergeCell ref="P39:W44"/>
+    <mergeCell ref="B45:O52"/>
+    <mergeCell ref="BU45:CI52"/>
     <mergeCell ref="B2:BH12"/>
     <mergeCell ref="BI2:BT12"/>
     <mergeCell ref="B13:O13"/>
     <mergeCell ref="X13:BH13"/>
     <mergeCell ref="BI13:BT13"/>
-    <mergeCell ref="BU13:CI13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="BU38:CI44"/>
-    <mergeCell ref="X33:BH33"/>
-    <mergeCell ref="X14:BH14"/>
-    <mergeCell ref="BI14:BT14"/>
     <mergeCell ref="BU14:CI14"/>
-    <mergeCell ref="BU2:CN12"/>
     <mergeCell ref="BO33:BT37"/>
-    <mergeCell ref="CJ13:CN56"/>
-    <mergeCell ref="P39:W44"/>
-    <mergeCell ref="B45:O52"/>
-    <mergeCell ref="BU45:CI52"/>
+    <mergeCell ref="B15:O33"/>
+    <mergeCell ref="X15:BH32"/>
+    <mergeCell ref="BI15:BT32"/>
+    <mergeCell ref="BU15:CI33"/>
     <mergeCell ref="B53:W56"/>
     <mergeCell ref="BI53:CI56"/>
     <mergeCell ref="P45:W52"/>
@@ -19264,12 +19552,16 @@
     <mergeCell ref="CC34:CI37"/>
     <mergeCell ref="X35:BH56"/>
     <mergeCell ref="B38:O44"/>
+    <mergeCell ref="BU38:CI44"/>
     <mergeCell ref="P13:W19"/>
     <mergeCell ref="P20:W26"/>
     <mergeCell ref="P27:W32"/>
     <mergeCell ref="BO38:BT44"/>
     <mergeCell ref="BO45:BT52"/>
     <mergeCell ref="P33:W38"/>
+    <mergeCell ref="X33:BH33"/>
+    <mergeCell ref="X14:BH14"/>
+    <mergeCell ref="BI14:BT14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
